--- a/working/Perturb/log/tables/table7.xlsx
+++ b/working/Perturb/log/tables/table7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_codes\FEM\FiniteElemntMethod\working\Perturb\log\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2047EC43-4C2C-426C-85FA-439A9B58CF7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7075C91E-628D-4D75-A2A9-7A10A7CF4BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="1080" windowWidth="16440" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2628" yWindow="1500" windowWidth="16440" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
   <si>
     <t>L2</t>
   </si>
@@ -112,6 +112,128 @@
   </si>
   <si>
     <t>$2^{-10}$</t>
+  </si>
+  <si>
+    <r>
+      <t>Eq.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\eqref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{mmwx0equiv1}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eq.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\eqref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{eq:4thpurbmfem0a}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eq.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\eqref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{eq:4thpurbmfem0b}-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\eqref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{eq:4thpurbmfem0c}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eq.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\eqref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{eq:4thpurbmfem0d}</t>
+    </r>
+  </si>
+  <si>
+    <t>Eq.\eqref{mmwx0equiv1}</t>
+  </si>
+  <si>
+    <t>Eq.\eqref{eq:4thpurbmfem0a}</t>
+  </si>
+  <si>
+    <t>Eq.\eqref{eq:4thpurbmfem0b}-\eqref{eq:4thpurbmfem0c}</t>
+  </si>
+  <si>
+    <t>Eq.\eqref{eq:4thpurbmfem0d}</t>
   </si>
 </sst>
 </file>
@@ -121,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +256,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,14 +384,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ39"/>
+  <dimension ref="A1:AQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,11 +1552,11 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1409,37 +1565,36 @@
       <c r="D17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="27" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="16" t="s">
         <v>18</v>
       </c>
@@ -1456,8 +1611,8 @@
         <v>18</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="16" t="s">
         <v>18</v>
       </c>
@@ -1468,13 +1623,10 @@
         <v>18</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1512,14 +1664,11 @@
       <c r="M19" s="10">
         <v>16</v>
       </c>
-      <c r="N19" s="22">
-        <v>8.4180000000000001E-3</v>
-      </c>
-      <c r="O19" s="10">
+      <c r="N19" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1557,14 +1706,11 @@
       <c r="M20" s="10">
         <v>27</v>
       </c>
-      <c r="N20" s="22">
-        <v>1.8270000000000002E-2</v>
-      </c>
-      <c r="O20" s="10">
+      <c r="N20" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1602,14 +1748,11 @@
       <c r="M21" s="10">
         <v>34</v>
       </c>
-      <c r="N21" s="22">
-        <v>2.7629999999999998E-2</v>
-      </c>
-      <c r="O21" s="10">
+      <c r="N21" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1647,14 +1790,11 @@
       <c r="M22" s="10">
         <v>34</v>
       </c>
-      <c r="N22" s="22">
-        <v>3.3849999999999998E-2</v>
-      </c>
-      <c r="O22" s="10">
+      <c r="N22" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1692,14 +1832,11 @@
       <c r="M23" s="10">
         <v>41</v>
       </c>
-      <c r="N23" s="22">
-        <v>6.6210000000000005E-2</v>
-      </c>
-      <c r="O23" s="10">
+      <c r="N23" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1737,14 +1874,11 @@
       <c r="M24" s="10">
         <v>43</v>
       </c>
-      <c r="N24" s="22">
-        <v>0.27529999999999999</v>
-      </c>
-      <c r="O24" s="10">
+      <c r="N24" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1782,14 +1916,11 @@
       <c r="M25" s="10">
         <v>44</v>
       </c>
-      <c r="N25" s="22">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="O25" s="10">
+      <c r="N25" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -1827,14 +1958,11 @@
       <c r="M26" s="10">
         <v>46</v>
       </c>
-      <c r="N26" s="22">
-        <v>6.6379999999999999</v>
-      </c>
-      <c r="O26" s="10">
+      <c r="N26" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -1872,14 +2000,11 @@
       <c r="M27" s="10">
         <v>50</v>
       </c>
-      <c r="N27" s="22">
-        <v>28.23</v>
-      </c>
-      <c r="O27" s="10">
+      <c r="N27" s="10">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
@@ -1917,14 +2042,11 @@
       <c r="M28" s="16">
         <v>55</v>
       </c>
-      <c r="N28" s="23">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="O28" s="16">
+      <c r="N28" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1934,18 +2056,18 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="19" t="s">
@@ -1954,18 +2076,18 @@
       <c r="E31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="20"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="16" t="s">
         <v>18</v>
       </c>
@@ -1998,7 +2120,7 @@
       <c r="F33" s="10">
         <v>34</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21">
         <v>3.3849999999999998E-2</v>
       </c>
       <c r="H33" s="10">
@@ -2021,7 +2143,7 @@
       <c r="F34" s="10">
         <v>41</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <v>6.6210000000000005E-2</v>
       </c>
       <c r="H34" s="10">
@@ -2044,7 +2166,7 @@
       <c r="F35" s="10">
         <v>43</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>0.27529999999999999</v>
       </c>
       <c r="H35" s="10">
@@ -2067,7 +2189,7 @@
       <c r="F36" s="10">
         <v>44</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21">
         <v>1.4179999999999999</v>
       </c>
       <c r="H36" s="10">
@@ -2090,7 +2212,7 @@
       <c r="F37" s="10">
         <v>46</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="21">
         <v>6.6379999999999999</v>
       </c>
       <c r="H37" s="10">
@@ -2113,7 +2235,7 @@
       <c r="F38" s="10">
         <v>50</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="21">
         <v>28.23</v>
       </c>
       <c r="H38" s="10">
@@ -2136,24 +2258,468 @@
       <c r="F39" s="16">
         <v>55</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>157.19999999999999</v>
       </c>
       <c r="H39" s="16">
         <v>27</v>
       </c>
     </row>
+    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="14">
+        <v>480</v>
+      </c>
+      <c r="D43" s="10">
+        <v>4</v>
+      </c>
+      <c r="E43" s="10">
+        <v>5</v>
+      </c>
+      <c r="F43" s="10">
+        <v>34</v>
+      </c>
+      <c r="G43" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1984</v>
+      </c>
+      <c r="D44" s="10">
+        <v>6</v>
+      </c>
+      <c r="E44" s="10">
+        <v>7</v>
+      </c>
+      <c r="F44" s="10">
+        <v>34</v>
+      </c>
+      <c r="G44" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="14">
+        <v>8064</v>
+      </c>
+      <c r="D45" s="10">
+        <v>6</v>
+      </c>
+      <c r="E45" s="10">
+        <v>9</v>
+      </c>
+      <c r="F45" s="10">
+        <v>41</v>
+      </c>
+      <c r="G45" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="14">
+        <v>32512</v>
+      </c>
+      <c r="D46" s="10">
+        <v>7</v>
+      </c>
+      <c r="E46" s="10">
+        <v>11</v>
+      </c>
+      <c r="F46" s="10">
+        <v>43</v>
+      </c>
+      <c r="G46" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="14">
+        <v>130560</v>
+      </c>
+      <c r="D47" s="10">
+        <v>7</v>
+      </c>
+      <c r="E47" s="10">
+        <v>14</v>
+      </c>
+      <c r="F47" s="10">
+        <v>44</v>
+      </c>
+      <c r="G47" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="14">
+        <v>523264</v>
+      </c>
+      <c r="D48" s="10">
+        <v>9</v>
+      </c>
+      <c r="E48" s="10">
+        <v>17</v>
+      </c>
+      <c r="F48" s="10">
+        <v>46</v>
+      </c>
+      <c r="G48" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="14">
+        <v>2095104</v>
+      </c>
+      <c r="D49" s="10">
+        <v>9</v>
+      </c>
+      <c r="E49" s="10">
+        <v>20</v>
+      </c>
+      <c r="F49" s="10">
+        <v>50</v>
+      </c>
+      <c r="G49" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="12">
+        <v>8384512</v>
+      </c>
+      <c r="D50" s="16">
+        <v>12</v>
+      </c>
+      <c r="E50" s="16">
+        <v>26</v>
+      </c>
+      <c r="F50" s="16">
+        <v>55</v>
+      </c>
+      <c r="G50" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="14">
+        <v>24</v>
+      </c>
+      <c r="D56" s="29">
+        <v>1</v>
+      </c>
+      <c r="E56" s="29">
+        <v>1</v>
+      </c>
+      <c r="F56" s="29">
+        <v>26</v>
+      </c>
+      <c r="G56" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="14">
+        <v>112</v>
+      </c>
+      <c r="D57" s="29">
+        <v>1</v>
+      </c>
+      <c r="E57" s="29">
+        <v>3</v>
+      </c>
+      <c r="F57" s="29">
+        <v>35</v>
+      </c>
+      <c r="G57" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="14">
+        <v>480</v>
+      </c>
+      <c r="D58" s="10">
+        <v>4</v>
+      </c>
+      <c r="E58" s="10">
+        <v>5</v>
+      </c>
+      <c r="F58" s="10">
+        <v>39</v>
+      </c>
+      <c r="G58" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="14">
+        <v>1984</v>
+      </c>
+      <c r="D59" s="10">
+        <v>6</v>
+      </c>
+      <c r="E59" s="10">
+        <v>7</v>
+      </c>
+      <c r="F59" s="10">
+        <v>50</v>
+      </c>
+      <c r="G59" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="14">
+        <v>8064</v>
+      </c>
+      <c r="D60" s="10">
+        <v>6</v>
+      </c>
+      <c r="E60" s="10">
+        <v>9</v>
+      </c>
+      <c r="F60" s="10">
+        <v>57</v>
+      </c>
+      <c r="G60" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="14">
+        <v>32512</v>
+      </c>
+      <c r="D61" s="10">
+        <v>7</v>
+      </c>
+      <c r="E61" s="10">
+        <v>11</v>
+      </c>
+      <c r="F61" s="10">
+        <v>74</v>
+      </c>
+      <c r="G61" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="14">
+        <v>130560</v>
+      </c>
+      <c r="D62" s="10">
+        <v>7</v>
+      </c>
+      <c r="E62" s="10">
+        <v>14</v>
+      </c>
+      <c r="F62" s="10">
+        <v>74</v>
+      </c>
+      <c r="G62" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="14">
+        <v>523264</v>
+      </c>
+      <c r="D63" s="10">
+        <v>9</v>
+      </c>
+      <c r="E63" s="10">
+        <v>17</v>
+      </c>
+      <c r="F63" s="10">
+        <v>78</v>
+      </c>
+      <c r="G63" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="14">
+        <v>2095104</v>
+      </c>
+      <c r="D64" s="10">
+        <v>9</v>
+      </c>
+      <c r="E64" s="10">
+        <v>20</v>
+      </c>
+      <c r="F64" s="10">
+        <v>83</v>
+      </c>
+      <c r="G64" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="23">
+        <v>8384512</v>
+      </c>
+      <c r="D65" s="16">
+        <v>12</v>
+      </c>
+      <c r="E65" s="16">
+        <v>27</v>
+      </c>
+      <c r="F65" s="16">
+        <v>83</v>
+      </c>
+      <c r="G65" s="16">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="M17:N17"/>
+  <mergeCells count="12">
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
